--- a/SampleData/SunnyPortalExport20170820.xlsx
+++ b/SampleData/SunnyPortalExport20170820.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="SunnyPortalExport20170820.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>SUNNY-MAIL</t>
   </si>
@@ -100,13 +100,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,14 +142,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,17 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -720,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -740,8 +762,224 @@
         <v>533</v>
       </c>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2000814023</v>
+      </c>
+      <c r="C21">
+        <v>2000814023</v>
+      </c>
+      <c r="D21">
+        <v>2000814023</v>
+      </c>
+      <c r="E21">
+        <v>2000814023</v>
+      </c>
+      <c r="F21">
+        <v>2000814023</v>
+      </c>
+      <c r="G21">
+        <v>2000814023</v>
+      </c>
+      <c r="H21">
+        <v>2000814023</v>
+      </c>
+      <c r="I21">
+        <v>2000814023</v>
+      </c>
+      <c r="J21">
+        <v>2000814023</v>
+      </c>
+      <c r="K21">
+        <v>2000814023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>0.44937500000000002</v>
+      </c>
+      <c r="B25">
+        <v>27025</v>
+      </c>
+      <c r="C25">
+        <v>29904</v>
+      </c>
+      <c r="D25">
+        <v>33358</v>
+      </c>
+      <c r="E25">
+        <v>3932</v>
+      </c>
+      <c r="F25">
+        <v>380</v>
+      </c>
+      <c r="G25">
+        <v>2000814023</v>
+      </c>
+      <c r="H25">
+        <v>1191</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>0.45979166666666665</v>
+      </c>
+      <c r="B26">
+        <v>27025</v>
+      </c>
+      <c r="C26">
+        <v>29904</v>
+      </c>
+      <c r="D26">
+        <v>33358</v>
+      </c>
+      <c r="E26">
+        <v>3932</v>
+      </c>
+      <c r="F26">
+        <v>380</v>
+      </c>
+      <c r="G26">
+        <v>2000814023</v>
+      </c>
+      <c r="H26">
+        <v>941</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/SampleData/SunnyPortalExport20170820.xlsx
+++ b/SampleData/SunnyPortalExport20170820.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>SUNNY-MAIL</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -759,221 +759,6 @@
         <v>533</v>
       </c>
       <c r="G17">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>2000814023</v>
-      </c>
-      <c r="C21">
-        <v>2000814023</v>
-      </c>
-      <c r="D21">
-        <v>2000814023</v>
-      </c>
-      <c r="E21">
-        <v>2000814023</v>
-      </c>
-      <c r="F21">
-        <v>2000814023</v>
-      </c>
-      <c r="G21">
-        <v>2000814023</v>
-      </c>
-      <c r="H21">
-        <v>2000814023</v>
-      </c>
-      <c r="I21">
-        <v>2000814023</v>
-      </c>
-      <c r="J21">
-        <v>2000814023</v>
-      </c>
-      <c r="K21">
-        <v>2000814023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>0.44937500000000002</v>
-      </c>
-      <c r="B25">
-        <v>27025</v>
-      </c>
-      <c r="C25">
-        <v>29904</v>
-      </c>
-      <c r="D25">
-        <v>33358</v>
-      </c>
-      <c r="E25">
-        <v>3932</v>
-      </c>
-      <c r="F25">
-        <v>380</v>
-      </c>
-      <c r="G25">
-        <v>2000814023</v>
-      </c>
-      <c r="H25">
-        <v>1191</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>0.45979166666666665</v>
-      </c>
-      <c r="B26">
-        <v>27025</v>
-      </c>
-      <c r="C26">
-        <v>29904</v>
-      </c>
-      <c r="D26">
-        <v>33358</v>
-      </c>
-      <c r="E26">
-        <v>3932</v>
-      </c>
-      <c r="F26">
-        <v>380</v>
-      </c>
-      <c r="G26">
-        <v>2000814023</v>
-      </c>
-      <c r="H26">
-        <v>941</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
         <v>533</v>
       </c>
     </row>
